--- a/biology/Botanique/Cryptothecia/Cryptothecia.xlsx
+++ b/biology/Botanique/Cryptothecia/Cryptothecia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Cryptothecia sont un genre de champignons filamenteux (c'est-à-dire formés d'hyphes) de la famille des Arthoniaceae[1].   
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Cryptothecia sont un genre de champignons filamenteux (c'est-à-dire formés d'hyphes) de la famille des Arthoniaceae.   
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Morphologie
-Les champignons du genre Cryptothecia possèdent des organes de reproduction en forme de soucoupes (apothécies) dans lesquelles l'hyménium est exposé à maturité. Bituniquées, avec des parois intérieures et extérieures bien différenciées. Cette espèce peut se développer sur des écorces[réf. souhaitée]. 
+          <t>Morphologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les champignons du genre Cryptothecia possèdent des organes de reproduction en forme de soucoupes (apothécies) dans lesquelles l'hyménium est exposé à maturité. Bituniquées, avec des parois intérieures et extérieures bien différenciées. Cette espèce peut se développer sur des écorces[réf. souhaitée]. 
 </t>
         </is>
       </c>
